--- a/Backlogs/Sprint1_Backlog.xlsx
+++ b/Backlogs/Sprint1_Backlog.xlsx
@@ -1,9 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="54" documentId="E957AD70838014063D4D312594C4B2AD6196E1C4" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{DDA5BE15-01D1-4AC7-8BCA-016F96E1EB7D}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,6 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Who</t>
   </si>
@@ -56,6 +56,18 @@
   </si>
   <si>
     <t>distance between the sign and a coordinate (uses coordinate.getDist()) method, not yet implemented</t>
+  </si>
+  <si>
+    <t>IM</t>
+  </si>
+  <si>
+    <t>KC</t>
+  </si>
+  <si>
+    <t>HA</t>
+  </si>
+  <si>
+    <t>IC</t>
   </si>
 </sst>
 </file>
@@ -128,12 +140,12 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="1" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="40% - Accent5" xfId="2" builtinId="47"/>
@@ -416,97 +428,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFD12"/>
+  <dimension ref="A1:XFD13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="52.54296875" customWidth="1"/>
+    <col min="2" max="2" width="61.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10 16384:16384" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10 16384:16384" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="1">
         <v>43149</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>43150</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>43151</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>43152</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>43153</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>43154</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10 16384:16384" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="3">
-        <f>SUM(C5:C51)</f>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:H3" si="0">SUM(C5:C51)</f>
         <v>14.5</v>
       </c>
-      <c r="D3" s="3">
-        <f>SUM(D5:D51)</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <f t="shared" ref="E3:H3" si="0">SUM(E5:E51)</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="D3" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G3" s="3">
+      <c r="E3" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H3" s="3">
+      <c r="F3" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="XFD3" s="4"/>
+      <c r="G3" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="XFD3" s="3"/>
     </row>
     <row r="4" spans="1:10 16384:16384" x14ac:dyDescent="0.35">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="XFD4" s="4"/>
+      <c r="XFD4" s="3"/>
     </row>
     <row r="5" spans="1:10 16384:16384" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -515,6 +530,9 @@
       </c>
     </row>
     <row r="6" spans="1:10 16384:16384" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -523,6 +541,9 @@
       </c>
     </row>
     <row r="7" spans="1:10 16384:16384" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -531,11 +552,14 @@
       </c>
     </row>
     <row r="8" spans="1:10 16384:16384" x14ac:dyDescent="0.35">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:10 16384:16384" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -544,6 +568,9 @@
       </c>
     </row>
     <row r="10" spans="1:10 16384:16384" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -552,6 +579,9 @@
       </c>
     </row>
     <row r="11" spans="1:10 16384:16384" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -560,12 +590,18 @@
       </c>
     </row>
     <row r="12" spans="1:10 16384:16384" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
+    </row>
+    <row r="13" spans="1:10 16384:16384" x14ac:dyDescent="0.35">
+      <c r="B13" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
